--- a/Resources/Code Definitions.xlsx
+++ b/Resources/Code Definitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Communications\Spr 20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslawless/Desktop/Desktop - Thomas’s iMac/Ga_Tech/Homework/Project_4/WHUPL/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F483FD96-6A6E-5240-8B72-3901AEAD62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="272">
   <si>
     <t>Body</t>
   </si>
@@ -831,12 +832,21 @@
   </si>
   <si>
     <t>Condition Code Alternatives</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>change to CL</t>
+  </si>
+  <si>
+    <t>Change to AV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,12 +951,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,10 +960,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1241,38 +1251,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>236</v>
       </c>
@@ -1285,14 +1296,14 @@
       <c r="E2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1305,14 +1316,17 @@
       <c r="E3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1323,14 +1337,17 @@
         <v>157</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1343,14 +1360,17 @@
       <c r="E5" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1363,12 +1383,15 @@
       <c r="E6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="11"/>
+      <c r="I6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1381,12 +1404,15 @@
       <c r="E7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="I7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1399,14 +1425,17 @@
       <c r="E8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1419,14 +1448,17 @@
       <c r="E9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1437,14 +1469,17 @@
         <v>139</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1457,14 +1492,17 @@
       <c r="E11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1475,14 +1513,17 @@
         <v>140</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1535,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1549,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1561,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1575,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1587,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1601,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1572,7 +1613,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1582,7 +1623,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1635,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1608,7 +1649,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1663,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1675,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1685,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1656,7 +1697,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1709,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1721,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1733,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1704,7 +1745,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1716,7 +1757,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1771,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1783,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1754,7 +1795,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1764,7 +1805,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1772,7 +1813,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1780,7 +1821,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1829,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1796,7 +1837,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1845,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1853,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1828,7 +1869,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1836,7 +1877,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1844,7 +1885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1852,7 +1893,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1860,7 +1901,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +1909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1876,7 +1917,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1884,7 +1925,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1892,7 +1933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1900,7 +1941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1908,7 +1949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1924,7 +1965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1932,7 +1973,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1940,7 +1981,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1948,7 +1989,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1956,7 +1997,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +2005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +2013,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1980,7 +2021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -1988,7 +2029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1996,7 +2037,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -2004,7 +2045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -2012,7 +2053,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2020,7 +2061,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -2028,7 +2069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2036,7 +2077,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2085,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2052,7 +2093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -2068,7 +2109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -2076,7 +2117,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -2084,7 +2125,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2092,7 +2133,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2100,7 +2141,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2108,13 +2149,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2122,7 +2163,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -2130,7 +2171,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -2138,7 +2179,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -2146,7 +2187,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -2154,7 +2195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2162,7 +2203,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -2170,7 +2211,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2178,13 +2219,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2192,7 +2233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -2200,19 +2241,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -2220,19 +2261,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -2240,7 +2281,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -2248,7 +2289,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -2256,7 +2297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -2264,7 +2305,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -2272,31 +2313,31 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -2304,7 +2345,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -2312,7 +2353,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -2320,13 +2361,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -2334,7 +2375,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -2342,7 +2383,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -2350,7 +2391,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -2358,7 +2399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -2366,7 +2407,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -2374,13 +2415,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -2388,7 +2429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -2396,7 +2437,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -2404,13 +2445,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -2418,7 +2459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -2426,7 +2467,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -2435,7 +2476,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D3:F34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:F34">
     <sortCondition ref="D3"/>
   </sortState>
   <mergeCells count="3">
@@ -2449,6 +2490,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF47BE64DF0CAA449C61E1E434EFE970" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2b33c21486f05351e267563ee77cdf80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="85fc0a54-60bf-4cda-abe3-d7cb63db2617" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83a65e8b523ad4faeda0573b549929cd" ns3:_="">
     <xsd:import namespace="85fc0a54-60bf-4cda-abe3-d7cb63db2617"/>
@@ -2620,15 +2670,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2636,6 +2677,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39A9FF9-58A0-454D-951E-23F959ED116F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CFC966F-4F06-47A5-B033-C4575B367CDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2649,14 +2698,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39A9FF9-58A0-454D-951E-23F959ED116F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
